--- a/Test_Automatizados/Variables.xlsx
+++ b/Test_Automatizados/Variables.xlsx
@@ -1,41 +1,210 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jenkins\GitLabRepo\automatizacion-iberia\Test_Automatizados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A1E14-80D6-46A0-AF6E-AFA1B1A4D03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="3372" windowWidth="17280" windowHeight="9072" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>PNR ST_001</t>
+  </si>
+  <si>
+    <t>MP20W</t>
+  </si>
+  <si>
+    <t>MP095</t>
+  </si>
+  <si>
+    <t>Bilbao</t>
+  </si>
+  <si>
+    <t>PNR ST_002</t>
+  </si>
+  <si>
+    <t>https://pree.iberia.es/</t>
+  </si>
+  <si>
+    <t>PNR ST_003</t>
+  </si>
+  <si>
+    <t>MP233</t>
+  </si>
+  <si>
+    <t>PNR ST_004</t>
+  </si>
+  <si>
+    <t>PNR ST_005</t>
+  </si>
+  <si>
+    <t>MP3F9</t>
+  </si>
+  <si>
+    <t>PNR ST_006</t>
+  </si>
+  <si>
+    <t>PNR ST_007</t>
+  </si>
+  <si>
+    <t>VUELO+HOTEL</t>
+  </si>
+  <si>
+    <t>PNR ST_008</t>
+  </si>
+  <si>
+    <t>PNR ST_009</t>
+  </si>
+  <si>
+    <t>PNR ST_010</t>
+  </si>
+  <si>
+    <t>PNR ST_011</t>
+  </si>
+  <si>
+    <t>PNR ST_012</t>
+  </si>
+  <si>
+    <t>PNR ST_013</t>
+  </si>
+  <si>
+    <t>PNR ST_014</t>
+  </si>
+  <si>
+    <t>PNR ST_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre@iberia.es </t>
+  </si>
+  <si>
+    <t>TR a terceros</t>
+  </si>
+  <si>
+    <t>TR a primeros</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Email_remitente</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email_receptor</t>
+  </si>
+  <si>
+    <t>Nombre_remitente</t>
+  </si>
+  <si>
+    <t>Remitente</t>
+  </si>
+  <si>
+    <t>Nombre_receptor</t>
+  </si>
+  <si>
+    <t>Receptor</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Disfruta de tu tarjeta regalo</t>
+  </si>
+  <si>
+    <t>Email_impresion_check</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Email_impresion</t>
+  </si>
+  <si>
+    <t>Gestor de bonos</t>
+  </si>
+  <si>
+    <t>Campaña (euros)</t>
+  </si>
+  <si>
+    <t>Tipo de campaña (Bp, Bf o Tr)</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>cantidad total (solo Bf o Tr)</t>
+  </si>
+  <si>
+    <t>cantidad porcentual (solo Bp) 1/100</t>
+  </si>
+  <si>
+    <t>cantidad marketing  (solo Bf o Tr)</t>
+  </si>
+  <si>
+    <t>Numero de usos (Solo Bp o Bf)</t>
+  </si>
+  <si>
+    <t>Edicion (si no se desea editar el campo dejarlo al mismo valor)</t>
+  </si>
+  <si>
+    <t>Edicion porcentual (Solo Bp)</t>
+  </si>
+  <si>
+    <t>Edicion total  (solo Bf o Tr)</t>
+  </si>
+  <si>
+    <t>Edicion marketing  (solo Bf o Tr)</t>
+  </si>
+  <si>
+    <t>Edicion usos (Solo Bp o Bf)</t>
+  </si>
+  <si>
+    <t>nombre@iberia.es</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,82 +224,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,179 +528,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="24" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>PNR ST_001</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MP20W</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MP095</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bilbao</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PNR ST_002</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>https://pree.iberia.es/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PNR ST_003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MP233</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PNR ST_004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PNR ST_005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MP3F9</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">panel.efernandez@iberia.es </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PNR ST_006</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PNR ST_007</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>VUELO+HOTEL</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PNR ST_008</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PNR ST_009</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PNR ST_010</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PNR ST_011</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PNR ST_012</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PNR ST_013</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PNR ST_014</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PNR ST_015</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{5CDA982F-4DEE-4FE1-90C8-2A984B46AD3F}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{6B40EB6E-A817-4BE4-87AF-A18D167CA2D1}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{293EA033-7E83-4D68-8507-3F2C75AFF470}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{59CC397D-15A5-4D58-8F4A-1750CE5689A4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>